--- a/Fase Licitação.xlsx
+++ b/Fase Licitação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\ComprasNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121EED74-1F14-442F-AA6E-FB77E34BA443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF4152-B589-4A52-9283-BC7BF6DA1609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>uasg</t>
   </si>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D2020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,27 +432,63 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>925560</v>
+      </c>
+      <c r="B3" s="1">
+        <v>900062025</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT(A3:B3)</f>
-        <v/>
+        <v>925560900062025</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>926654</v>
+      </c>
+      <c r="B4" s="1">
+        <v>900792024</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>926654900792024</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>928903</v>
+      </c>
+      <c r="B5" s="1">
+        <v>900012025</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>928903900012025</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>102123</v>
+      </c>
+      <c r="B6" s="1">
+        <v>900132025</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>102123900132025</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12337,7 +12373,7 @@
     </row>
     <row r="1987" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1987" t="str">
-        <f t="shared" ref="D1987:D2050" si="31">_xlfn.CONCAT(A1987:B1987)</f>
+        <f t="shared" ref="D1987:D2020" si="31">_xlfn.CONCAT(A1987:B1987)</f>
         <v/>
       </c>
     </row>
